--- a/Docs/Current Consumption Calculation.xlsx
+++ b/Docs/Current Consumption Calculation.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E21E32A-B46E-47EA-BED2-0F21AC91B6E8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25BD427-04BC-4D48-9C7F-9E11F39318CE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="1332" windowWidth="20340" windowHeight="11628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,6 @@
     <t>Function</t>
   </si>
   <si>
-    <t>Control external Triac Potentiometer</t>
-  </si>
-  <si>
     <t xml:space="preserve">RC Servo </t>
   </si>
   <si>
@@ -77,6 +74,9 @@
   </si>
   <si>
     <t>Housing fan for cooling PCB</t>
+  </si>
+  <si>
+    <t>Control external triac potentiometer</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,10 +475,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -495,10 +495,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -512,7 +512,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -529,10 +529,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -546,10 +546,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -566,10 +566,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -586,7 +586,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>2</v>
